--- a/INTLINE/data/134/DEUSTATIS/Consumer price index years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Consumer price index years.xlsx
@@ -17,8 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
-    <t>Consumer price index (incl. rates of change):
-Germany, years</t>
+    <t>Consumer price index: Germany, years</t>
   </si>
   <si>
     <t>Consumer price index for Germany</t>
@@ -141,7 +140,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:33:24</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:38:54</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1235,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup usePrinterDefaults="false"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:33:28&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:38:59&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Consumer price index years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Consumer price index years.xlsx
@@ -140,7 +140,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:38:54</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 05:30:28</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1235,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup usePrinterDefaults="false"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:38:59&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 05:30:32&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>